--- a/individual_case_outputs/avey/195.xlsx
+++ b/individual_case_outputs/avey/195.xlsx
@@ -714,7 +714,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>irritable bowel syndrome</t>
+          <t>chronic constipation</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>pelvic inflammatory disease</t>
+          <t>left ovarian mass</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -825,7 +825,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>pelvic inflammatory disease</t>
+          <t>ovarian cysts</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -845,7 +845,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>pelvic inflammatory disease</t>
+          <t>trichomoniasis</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -965,7 +965,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>irritable bowel syndrome</t>
+          <t>gases</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
